--- a/frontend/finance-manager-web/public/templates/import-transacoes-template.xlsx
+++ b/frontend/finance-manager-web/public/templates/import-transacoes-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instrucoes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Transacoes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrucoes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transacoes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -444,31 +444,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Use este modelo antes de importar seus dados. Os campos obrigatórios devem ser preenchidos exatamente como descritos. A conta de destino é selecionada durante o upload na aplicação.</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Use este modelo antes de importar seus dados. Os campos obrigatorios devem ser preenchidos exatamente como descritos. Caso queira dividir as transacoes por contas diferentes, utilize as colunas conta_nome e conta_tipo conforme instrucoes abaixo. Linhas sem conta_nome usam a conta selecionada no upload.</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Campo</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Obrigatório?</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Formato / Valores válidos</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Descrição</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Obrigatorio?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Formato / Valores validos</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Descricao</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tipo da transação.</t>
+          <t>Tipo da transacao.</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Data em que o lançamento deve ser contabilizado.</t>
+          <t>Data em que o lancamento deve ser contabilizado.</t>
         </is>
       </c>
     </row>
@@ -529,188 +529,232 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Texto (até 255 caracteres)</t>
+          <t>Texto (ate 255 caracteres)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Descrição resumida da transação.</t>
+          <t>Descricao resumida da transacao.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>conta_nome</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Sim (quando diferente da conta padrao)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Número positivo com 2 casas decimais</t>
+          <t>Nome da conta existente ou novo nome</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Valor absoluto da transação (usado com o tipo para definir sinal).</t>
+          <t>Conta que recebera a transacao. Use o mesmo nome cadastrado ou informe um novo para ser criado automaticamente. Deixe vazio para usar a conta escolhida no upload.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>moeda</t>
+          <t>conta_tipo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Não (padrão BRL)</t>
+          <t>Nao (recomendado ao criar conta nova)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Código ISO 4217 (ex: BRL, USD)</t>
+          <t>dinheiro | conta_corrente | poupanca | cartao_credito | investimento | outros</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moeda usada no lançamento.</t>
+          <t>Tipo da conta quando uma nova conta for criada a partir de conta_nome. Se vazio, copiaremos o tipo da conta padrao.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>categoria_nome</t>
+          <t>valor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nome exatamente como cadastrado</t>
+          <t>Numero positivo com 2 casas decimais</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Categoria que será associada (opcional para transferências).</t>
+          <t>Valor absoluto da transacao (usado com o tipo para definir sinal).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>moeda</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Nao (padrao BRL)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pending | cleared | reconciled</t>
+          <t>Codigo ISO 4217 (ex: BRL, USD)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Situação da transação.</t>
+          <t>Moeda usada no lancamento.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>payment_method</t>
+          <t>categoria_nome</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Nao</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cash | pix | debit | credit | boleto | transfer | check | other</t>
+          <t>Nome exatamente como cadastrado</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Método de pagamento.</t>
+          <t>Categoria associada (opcional para transferencias).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>data_competencia</t>
+          <t>status</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Nao</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AAAA-MM-DD</t>
+          <t>pending | cleared | reconciled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Data de competência quando diferente da data de lançamento.</t>
+          <t>Situacao da transacao.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tags</t>
+          <t>payment_method</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Nao</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lista separada por vírgulas</t>
+          <t>cash | pix | debit | credit | boleto | transfer | check | other</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Palavras-chave para filtros.</t>
+          <t>Metodo de pagamento.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>data_competencia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nao</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AAAA-MM-DD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Data de competencia quando diferente da data de lancamento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nao</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Lista separada por virgulas</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Palavras-chave para filtros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>observacoes</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nao</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Texto livre</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Notas adicionais que ajudarão na conciliação.</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Notas adicionais que auxiliam na conciliacao.</t>
         </is>
       </c>
     </row>
@@ -728,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -766,42 +810,52 @@
           <t>descricao</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>conta_nome</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>conta_tipo</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>valor</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>moeda</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>categoria_nome</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>payment_method</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>data_competencia</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>observacoes</t>
         </is>
@@ -823,40 +877,40 @@
           <t>Supermercado</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>350.75</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Alimentação</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>compensada</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>cartao_debito</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2024-05-10</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>mercado,essenciais</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Compras da semana</t>
         </is>
@@ -878,35 +932,35 @@
           <t>Pagamento Cliente ACME</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>8200</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BRL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Serviços</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>pendente</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>transferencia</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>receita,consultoria</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Fatura 0524</t>
         </is>
